--- a/app/src/main/assets/General Biology 1.xlsx
+++ b/app/src/main/assets/General Biology 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4697F-4EBD-44C5-8E4C-4F092F1A5FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDC463-BD4A-4A24-B570-EA20AFE5FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="162">
   <si>
     <t>Which of the following is NOT a part of a compound microscope?</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>08 Handout</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +894,7 @@
     <col min="6" max="6" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -913,8 +916,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -959,8 +968,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -982,8 +994,11 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1005,8 +1020,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1028,8 +1046,11 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1051,8 +1072,11 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1074,8 +1098,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1097,8 +1124,11 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1120,8 +1150,11 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1143,8 +1176,11 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -1166,8 +1202,11 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1189,8 +1228,11 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -1212,8 +1254,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1235,8 +1280,11 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1258,8 +1306,11 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1281,8 +1332,11 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1304,8 +1358,11 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1327,8 +1384,11 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1349,6 +1409,9 @@
       </c>
       <c r="G20" t="s">
         <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51728E-EA3E-4637-BBA7-3285FEA452DF}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1435,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -1382,8 +1445,11 @@
       <c r="C1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1393,8 +1459,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1404,8 +1473,11 @@
       <c r="C3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1415,8 +1487,11 @@
       <c r="C4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1426,8 +1501,11 @@
       <c r="C5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1437,8 +1515,11 @@
       <c r="C6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1448,8 +1529,11 @@
       <c r="C7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1459,8 +1543,11 @@
       <c r="C8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1470,8 +1557,11 @@
       <c r="C9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1481,8 +1571,11 @@
       <c r="C10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1492,8 +1585,11 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -1503,8 +1599,11 @@
       <c r="C12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1514,8 +1613,11 @@
       <c r="C13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -1525,8 +1627,11 @@
       <c r="C14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1536,8 +1641,11 @@
       <c r="C15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1547,8 +1655,11 @@
       <c r="C16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1558,8 +1669,11 @@
       <c r="C17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1569,8 +1683,11 @@
       <c r="C18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1580,8 +1697,11 @@
       <c r="C19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1590,6 +1710,9 @@
       </c>
       <c r="C20" t="s">
         <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1599,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836DB1D-6761-494E-98E1-C6FEE981DF07}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1735,7 @@
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -1622,8 +1745,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1633,8 +1759,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1644,8 +1773,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1655,8 +1787,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1666,8 +1801,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1677,8 +1815,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1688,8 +1829,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1699,8 +1843,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1710,8 +1857,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1721,8 +1871,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1732,8 +1885,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -1743,8 +1899,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1754,8 +1913,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -1765,8 +1927,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1776,8 +1941,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1787,8 +1955,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1798,8 +1969,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1809,8 +1983,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1820,8 +1997,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1830,6 +2010,9 @@
       </c>
       <c r="C20" t="b">
         <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
